--- a/preData/checkPerformance.xlsx
+++ b/preData/checkPerformance.xlsx
@@ -5,21 +5,22 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nguyenminhtuan/Documents/KiwiUniverse/iLawyer/iLawyer228/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nguyenminhtuan/Documents/KiwiUniverse/iLawyer/iLawyer228/preData/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14180" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14180" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="171027" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="8">
   <si>
     <t>STT</t>
   </si>
@@ -49,8 +50,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="169" formatCode="0.00000"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="0.00000"/>
+    <numFmt numFmtId="169" formatCode="0.0"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -93,14 +95,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="169" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="169" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -116,6 +120,1255 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="vi-VN" sz="1200">
+                <a:latin typeface="+mj-lt"/>
+              </a:rPr>
+              <a:t>performance of model with different learning rate   </a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" sz="1200">
+              <a:latin typeface="+mj-lt"/>
+            </a:endParaRPr>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.20992344706911634"/>
+          <c:y val="2.7777777777777776E-2"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Training set</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet2!$C$2:$C$10</c:f>
+              <c:numCache>
+                <c:formatCode>0.0</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.9</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet2!$D$2:$D$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>0.97035040431300001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.97035040431300001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.95956873315400004</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.94339622641499998</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.913746630728</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.88679245282999997</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.85714285714299998</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.81401617250699998</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.77088948787099998</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-33E8-9847-8EE0-89D33B108882}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$E$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Test set</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet2!$C$2:$C$10</c:f>
+              <c:numCache>
+                <c:formatCode>0.0</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.9</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet2!$E$2:$E$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>0.83620689655199998</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.81896551724099997</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.81896551724099997</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.79310344827599999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.75862068965499996</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.70689655172400001</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.62068965517200003</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.54310344827599999</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.49137931034499999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-33E8-9847-8EE0-89D33B108882}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1917041216"/>
+        <c:axId val="1908376256"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1917041216"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="vi-VN"/>
+                  <a:t>Alpha</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0.0" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1908376256"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1908376256"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="vi-VN"/>
+                  <a:t>Performance</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1917041216"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>359834</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>809904</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>68178</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{023D5039-1744-7D4D-8E33-585AF00F9672}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -417,8 +1670,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E215"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -1187,4 +2440,165 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{21C012BD-FEBF-DA49-84F7-54019B468B58}">
+  <dimension ref="B1:E20"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="114" workbookViewId="0">
+      <selection activeCell="A8" sqref="A8:XFD8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetData>
+    <row r="1" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="2:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="B2" s="2">
+        <v>200</v>
+      </c>
+      <c r="C2" s="8">
+        <v>0.1</v>
+      </c>
+      <c r="D2">
+        <v>0.97035040431300001</v>
+      </c>
+      <c r="E2">
+        <v>0.83620689655199998</v>
+      </c>
+    </row>
+    <row r="3" spans="2:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="B3" s="2">
+        <v>400</v>
+      </c>
+      <c r="C3" s="8">
+        <v>0.2</v>
+      </c>
+      <c r="D3">
+        <v>0.97035040431300001</v>
+      </c>
+      <c r="E3">
+        <v>0.81896551724099997</v>
+      </c>
+    </row>
+    <row r="4" spans="2:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="B4" s="2">
+        <v>200</v>
+      </c>
+      <c r="C4" s="8">
+        <v>0.3</v>
+      </c>
+      <c r="D4">
+        <v>0.95956873315400004</v>
+      </c>
+      <c r="E4">
+        <v>0.81896551724099997</v>
+      </c>
+    </row>
+    <row r="5" spans="2:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="B5" s="2">
+        <v>400</v>
+      </c>
+      <c r="C5" s="8">
+        <v>0.4</v>
+      </c>
+      <c r="D5">
+        <v>0.94339622641499998</v>
+      </c>
+      <c r="E5">
+        <v>0.79310344827599999</v>
+      </c>
+    </row>
+    <row r="6" spans="2:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="B6" s="2">
+        <v>200</v>
+      </c>
+      <c r="C6" s="8">
+        <v>0.5</v>
+      </c>
+      <c r="D6">
+        <v>0.913746630728</v>
+      </c>
+      <c r="E6">
+        <v>0.75862068965499996</v>
+      </c>
+    </row>
+    <row r="7" spans="2:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="B7" s="2">
+        <v>400</v>
+      </c>
+      <c r="C7" s="8">
+        <v>0.6</v>
+      </c>
+      <c r="D7">
+        <v>0.88679245282999997</v>
+      </c>
+      <c r="E7">
+        <v>0.70689655172400001</v>
+      </c>
+    </row>
+    <row r="8" spans="2:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="B8" s="2">
+        <v>400</v>
+      </c>
+      <c r="C8" s="8">
+        <v>0.7</v>
+      </c>
+      <c r="D8">
+        <v>0.85714285714299998</v>
+      </c>
+      <c r="E8">
+        <v>0.62068965517200003</v>
+      </c>
+    </row>
+    <row r="9" spans="2:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="B9" s="2">
+        <v>200</v>
+      </c>
+      <c r="C9" s="8">
+        <v>0.8</v>
+      </c>
+      <c r="D9">
+        <v>0.81401617250699998</v>
+      </c>
+      <c r="E9">
+        <v>0.54310344827599999</v>
+      </c>
+    </row>
+    <row r="10" spans="2:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="B10" s="2">
+        <v>400</v>
+      </c>
+      <c r="C10" s="8">
+        <v>0.9</v>
+      </c>
+      <c r="D10">
+        <v>0.77088948787099998</v>
+      </c>
+      <c r="E10">
+        <v>0.49137931034499999</v>
+      </c>
+    </row>
+    <row r="20" spans="2:3" ht="15" x14ac:dyDescent="0.2">
+      <c r="B20" s="4"/>
+      <c r="C20" s="2"/>
+    </row>
+  </sheetData>
+  <dataConsolidate/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>